--- a/1.xlsx
+++ b/1.xlsx
@@ -1,127 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
-</workbook>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
-</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -393,7 +269,89 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>4x1 + 3x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ax1 + -4x2 &lt;= 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2x1 + 2x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 32</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =8</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 2 b:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [2..10] || b: [8..16]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -401,21 +359,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2x1 + 6x2 -&gt; Max</t>
+          <t>3x1 + 3x2 -&gt; Max</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ax1 + 0x2 &lt;= 12</t>
+          <t>2x1 + 3x2 &lt;= b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1x1 + 5x2 &lt;= b</t>
+          <t>ax1 + 2x2 &lt;= 13</t>
         </is>
       </c>
     </row>
@@ -429,39 +387,121 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Objective value =24</t>
+          <t>Objective value = 33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>x1 =3</t>
+          <t>x1 =11</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>x2 =3</t>
+          <t>x2 =0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>a: 4 b:18</t>
+          <t>a: 1 b:22</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>a: [4..12] b: [10..18]</t>
+          <t>a: [1..9] || b: [14..22]</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>6x1 + 4x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ax1 + -5x2 &lt;= 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1x1 + 3x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 42</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =7</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 2 b:7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [2..10] || b: [-1..7]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -1,3 +1,158 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="8" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="10" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="11" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="12" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="13" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="14" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="15" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="16" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="17" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="18" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="19" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="20" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="21" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="22" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="23" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="24" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="25" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="26" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="27" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="28" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="29" sheetId="31" state="visible" r:id="rId31"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -10,44 +165,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -74,15 +229,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -109,7 +263,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -121,142 +274,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -266,32 +443,50 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>4x1 + 3x2 -&gt; Max</t>
+          <t>1x1 + 5x2 -&gt; Max</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ax1 + -4x2 &lt;= 19</t>
+          <t>ax1 + 4x2 &lt;= 28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2x1 + 2x2 &lt;= b</t>
+          <t>4x1 + 1x2 &lt;= b</t>
         </is>
       </c>
     </row>
@@ -305,35 +500,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Objective value = 32</t>
+          <t>Objective value = 35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>x1 =8</t>
+          <t>x1 =0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>x2 =0</t>
+          <t>x2 =7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>a: 2 b:16</t>
+          <t>a: 2 b:7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>a: [2..10] || b: [8..16]</t>
+          <t>a: [-6..2] || b: [-1..7]</t>
         </is>
       </c>
     </row>
@@ -342,7 +537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -359,21 +554,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>3x1 + 3x2 -&gt; Max</t>
+          <t>5x1 + 2x2 -&gt; Max</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2x1 + 3x2 &lt;= b</t>
+          <t>1x1 + -5x2 &lt;= b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ax1 + 2x2 &lt;= 13</t>
+          <t>ax1 + 6x2 &lt;= 19</t>
         </is>
       </c>
     </row>
@@ -387,35 +582,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Objective value = 33</t>
+          <t>Objective value = 67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>x1 =11</t>
+          <t>x1 =13</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>x2 =0</t>
+          <t>x2 =1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>a: 1 b:22</t>
+          <t>a: 1 b:8</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>a: [1..9] || b: [14..22]</t>
+          <t>a: [1..9] || b: [0..8]</t>
         </is>
       </c>
     </row>
@@ -424,7 +619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -441,21 +636,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>6x1 + 4x2 -&gt; Max</t>
+          <t>6x1 + 5x2 -&gt; Max</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ax1 + -5x2 &lt;= 20</t>
+          <t>1x1 + 6x2 &lt;= b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1x1 + 3x2 &lt;= b</t>
+          <t>ax1 + 5x2 &lt;= 23</t>
         </is>
       </c>
     </row>
@@ -469,14 +664,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Objective value = 42</t>
+          <t>Objective value = 72</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>x1 =7</t>
+          <t>x1 =12</t>
         </is>
       </c>
     </row>
@@ -490,18 +685,2232 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>a: 2 b:7</t>
+          <t>a: 1 b:12</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>a: [2..10] || b: [-1..7]</t>
+          <t>a: [1..9] || b: [4..12]</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>5x1 + 5x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ax1 + 5x2 &lt;= 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5x1 + -4x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 3 b:2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [3..11] || b: [-6..2]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>3x1 + 1x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1x1 + 5x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ax1 + -5x2 &lt;= 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 52</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =17</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 1 b:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [1..9] || b: [14..22]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>3x1 + 3x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5x1 + -4x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ax1 + 6x2 &lt;= 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 5 b:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [5..13] || b: [2..10]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>3x1 + 4x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5x1 + 2x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ax1 + -1x2 &lt;= 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 1 b:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [-7..1] || b: [6..14]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>3x1 + 3x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ax1 + 1x2 &lt;= 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2x1 + 1x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 39</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 3 b:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [-5..3] || b: [5..13]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>4x1 + 3x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ax1 + -2x2 &lt;= 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2x1 + 4x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 42</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =9</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 3 b:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [3..11] || b: [18..26]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>4x1 + 2x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6x1 + 1x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3x1 + ax2 &lt;= 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 1 b:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [1..9] || b: [3..11]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>4x1 + 3x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5x1 + ax2 &lt;= 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2x1 + 2x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: -1 b:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [-1..7] || b: [10..18]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>6x1 + 4x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3x1 + -1x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ax1 + 4x2 &lt;= 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 64</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 2 b:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [2..10] || b: [21..29]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>5x1 + 4x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2x1 + ax2 &lt;= 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4x1 + -7x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 2 b:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [2..10] || b: [2..10]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>4x1 + 4x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1x1 + ax2 &lt;= 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2x1 + 1x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 36</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 2 b:9</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [2..10] || b: [1..9]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>4x1 + 3x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3x1 + -3x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2x1 + ax2 &lt;= 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 37</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =7</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 5 b:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [5..13] || b: [4..12]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>6x1 + 1x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1x1 + ax2 &lt;= 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6x1 + -3x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 4 b:9</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [4..12] || b: [1..9]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>1x1 + 2x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4x1 + -5x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ax1 + 3x2 &lt;= 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 1 b:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [1..9] || b: [10..18]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2x1 + 6x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3x1 + 5x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ax1 + 3x2 &lt;= 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 2 b:5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [-6..2] || b: [-3..5]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2x1 + 1x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3x1 + -3x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ax1 + 3x2 &lt;= 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 2 b:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [2..10] || b: [22..30]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2x1 + 3x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ax1 + 6x2 &lt;= 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6x1 + 2x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 2 b:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [2..10] || b: [10..18]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>4x1 + 4x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ax1 + -4x2 &lt;= 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1x1 + 2x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 64</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 2 b:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [2..10] || b: [11..19]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2x1 + 6x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2x1 + ax2 &lt;= 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5x1 + 3x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: -2 b:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [-10..-2] || b: [16..24]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>5x1 + 2x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2x1 + -7x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1x1 + ax2 &lt;= 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 92</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =18</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 1 b:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [1..9] || b: [21..29]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>4x1 + 1x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5x1 + 4x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3x1 + ax2 &lt;= 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 3 b:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [3..11] || b: [2..10]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2x1 + 1x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3x1 + -4x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ax1 + 3x2 &lt;= 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 2 b:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [2..10] || b: [6..14]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>6x1 + 6x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5x1 + -7x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ax1 + 3x2 &lt;= 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 54</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =7</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 2 b:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [2..10] || b: [13..21]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>6x1 + 5x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1x1 + ax2 &lt;= 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3x1 + 1x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 2 b:8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [2..10] || b: [0..8]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>1x1 + 2x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ax1 + -2x2 &lt;= 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1x1 + 3x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 1 b:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [1..9] || b: [21..29]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>5x1 + 2x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3x1 + 1x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2x1 + ax2 &lt;= 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 34</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 1 b:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [1..9] || b: [9..17]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>5x1 + 6x2 -&gt; Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1x1 + 5x2 &lt;= b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ax1 + 5x2 &lt;= 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Objective value = 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>x1 =1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>x2 =2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a: 6 b:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a: [6..14] || b: [3..11]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>